--- a/src/data/year_total_ao.xlsx
+++ b/src/data/year_total_ao.xlsx
@@ -1,52 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Total Allotment</t>
-  </si>
-  <si>
-    <t>Total Offtake</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -118,6 +182,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -143,12 +211,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -174,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,220 +420,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>allotment</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>offtake</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C2" t="n">
+        <v>33339.66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17375.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C3" t="n">
+        <v>34330.76</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18574.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2">
-        <v>87387.37</v>
-      </c>
-      <c r="C2">
-        <v>49156.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3">
-        <v>85809.16</v>
-      </c>
-      <c r="C3">
-        <v>37340.730000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="B4" t="n">
         <v>2005</v>
       </c>
-      <c r="B4">
-        <v>80820.7</v>
-      </c>
-      <c r="C4">
-        <v>40418.910000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="C4" t="n">
+        <v>48210.39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25269.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>2006</v>
       </c>
-      <c r="B5">
-        <v>63817.599999999999</v>
-      </c>
-      <c r="C5">
-        <v>36458.449999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="C5" t="n">
+        <v>48333.61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27877.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>2007</v>
       </c>
-      <c r="B6">
-        <v>44026.69</v>
-      </c>
-      <c r="C6">
-        <v>37460.19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="C6" t="n">
+        <v>38947.82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33513.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>2008</v>
       </c>
-      <c r="B7">
+      <c r="C7" t="n">
         <v>45551.39</v>
       </c>
-      <c r="C7">
+      <c r="D7" t="n">
         <v>39557.49</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>2009</v>
       </c>
-      <c r="B8">
-        <v>61724.47</v>
-      </c>
-      <c r="C8">
-        <v>50027.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="C8" t="n">
+        <v>43498.32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33904.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>2010</v>
       </c>
-      <c r="B9">
-        <v>68203.89</v>
-      </c>
-      <c r="C9">
-        <v>53030.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="C9" t="n">
+        <v>47055.26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36610.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>2011</v>
       </c>
-      <c r="B10">
-        <v>70725.490000000005</v>
-      </c>
-      <c r="C10">
-        <v>56320.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="C10" t="n">
+        <v>50471.74000000001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>39561.39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>2012</v>
       </c>
-      <c r="B11">
-        <v>75644.12</v>
-      </c>
-      <c r="C11">
-        <v>65883.179999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="C11" t="n">
+        <v>54904.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46188.07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>2013</v>
       </c>
-      <c r="B12">
-        <v>70498.28</v>
-      </c>
-      <c r="C12">
-        <v>59813.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="C12" t="n">
+        <v>61401.13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>52341.42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>2014</v>
       </c>
-      <c r="B13">
-        <v>61269.03</v>
-      </c>
-      <c r="C13">
-        <v>62727.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="C13" t="n">
+        <v>42712.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44953.31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>2015</v>
       </c>
-      <c r="B14">
-        <v>60787.29</v>
-      </c>
-      <c r="C14">
-        <v>63706.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="C14" t="n">
+        <v>48251.39</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48048.61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>2016</v>
       </c>
-      <c r="B15">
-        <v>62358.64</v>
-      </c>
-      <c r="C15">
-        <v>62959.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="C15" t="n">
+        <v>45764.44</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47591.46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>2017</v>
       </c>
-      <c r="B16">
-        <v>60432.78</v>
-      </c>
-      <c r="C16">
-        <v>59965.760000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="C16" t="n">
+        <v>44383.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44265.71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>2018</v>
       </c>
-      <c r="B17">
-        <v>60469.67</v>
-      </c>
-      <c r="C17">
-        <v>65878.36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="C17" t="n">
+        <v>40687.57</v>
+      </c>
+      <c r="D17" t="n">
+        <v>43981.28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>2019</v>
       </c>
-      <c r="B18">
-        <v>59906.04</v>
-      </c>
-      <c r="C18">
-        <v>47493.74</v>
+      <c r="C18" t="n">
+        <v>50089.45</v>
+      </c>
+      <c r="D18" t="n">
+        <v>39612</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>